--- a/montecarlo/products/Auto Joven.xlsx
+++ b/montecarlo/products/Auto Joven.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="info"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Amount</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Simulation period of years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 </t>
   </si>
   <si>
     <t>Expected return</t>
@@ -478,7 +481,7 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -491,20 +494,20 @@
         <v>7</v>
       </c>
       <c r="B1" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9">
-        <v>5</v>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="10">
         <v>0.059</v>
@@ -512,7 +515,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="10">
         <v>0.105</v>
@@ -520,15 +523,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9">
         <v>5</v>
@@ -536,7 +539,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="10">
         <v>0.0426</v>
@@ -544,7 +547,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="10">
         <v>0.0313</v>
@@ -552,10 +555,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +573,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -600,7 +603,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
